--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_9_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3560550.219354118</v>
+        <v>3559184.775293467</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2107776.869223095</v>
+        <v>2186487.330620791</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74622.75249697544</v>
+        <v>31981.17964156108</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8120932.776964161</v>
+        <v>8125032.479359865</v>
       </c>
     </row>
     <row r="11">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>38.88501798484931</v>
       </c>
       <c r="V2" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>6.702134960233244</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>44.13217237922859</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
         <v>44.13217237922859</v>
@@ -756,7 +756,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -823,55 +823,55 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>19.93169026592149</v>
+      </c>
+      <c r="T4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="F4" t="n">
+      <c r="U4" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.7904504476822409</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.743544820165533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C6" t="n">
+      <c r="F6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
     </row>
     <row r="7">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>81.40177202267807</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>81.40177202267807</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>81.40177202267807</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="T8" t="n">
-        <v>64.82263505586337</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>48.33877264823866</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>81.40177202267807</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>81.40177202267807</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>80.50825511962995</v>
       </c>
       <c r="T9" t="n">
-        <v>81.40177202267807</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>71.6986807975748</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.03399177268426</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>81.40177202267807</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>49.06375482758344</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>227.5864089987339</v>
       </c>
       <c r="I11" t="n">
-        <v>31.04156581740861</v>
+        <v>31.04156581740862</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.19841205165849</v>
+        <v>67.19841205165851</v>
       </c>
       <c r="T11" t="n">
         <v>125.1973880384843</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.37750510545561</v>
+        <v>92.37750510545563</v>
       </c>
       <c r="C13" t="n">
-        <v>79.79234602214615</v>
+        <v>79.79234602214616</v>
       </c>
       <c r="D13" t="n">
-        <v>61.16099794173067</v>
+        <v>61.16099794173068</v>
       </c>
       <c r="E13" t="n">
-        <v>58.97948757008749</v>
+        <v>58.9794875700875</v>
       </c>
       <c r="F13" t="n">
-        <v>57.96657294644956</v>
+        <v>57.96657294644957</v>
       </c>
       <c r="G13" t="n">
-        <v>79.46630147808875</v>
+        <v>79.46630147808878</v>
       </c>
       <c r="H13" t="n">
-        <v>65.25762159275087</v>
+        <v>65.25762159275089</v>
       </c>
       <c r="I13" t="n">
-        <v>35.81208280293529</v>
+        <v>35.81208280293474</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.71870659130935</v>
+        <v>41.71870659130964</v>
       </c>
       <c r="S13" t="n">
         <v>117.911406823637</v>
@@ -1607,7 +1607,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C14" t="n">
-        <v>277.8184166945257</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D14" t="n">
         <v>267.2285665442013</v>
@@ -1765,22 +1765,22 @@
         <v>92.37750510545563</v>
       </c>
       <c r="C16" t="n">
-        <v>79.79234602214616</v>
+        <v>79.79234602214561</v>
       </c>
       <c r="D16" t="n">
         <v>61.16099794173068</v>
       </c>
       <c r="E16" t="n">
-        <v>58.97948757008698</v>
+        <v>58.9794875700875</v>
       </c>
       <c r="F16" t="n">
         <v>57.96657294644957</v>
       </c>
       <c r="G16" t="n">
-        <v>79.46630147808877</v>
+        <v>79.46630147808878</v>
       </c>
       <c r="H16" t="n">
-        <v>65.25762159275088</v>
+        <v>65.25762159275089</v>
       </c>
       <c r="I16" t="n">
         <v>35.81208280293531</v>
@@ -1862,7 +1862,7 @@
         <v>227.5864089987339</v>
       </c>
       <c r="I17" t="n">
-        <v>31.04156581740864</v>
+        <v>31.0415658174086</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.19841205165851</v>
+        <v>67.19841205165848</v>
       </c>
       <c r="T17" t="n">
         <v>125.1973880384843</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.37750510545563</v>
+        <v>92.3775051054556</v>
       </c>
       <c r="C19" t="n">
-        <v>79.79234602214616</v>
+        <v>79.79234602214613</v>
       </c>
       <c r="D19" t="n">
-        <v>61.16099794173068</v>
+        <v>61.16099794173066</v>
       </c>
       <c r="E19" t="n">
-        <v>58.9794875700875</v>
+        <v>58.97948757008747</v>
       </c>
       <c r="F19" t="n">
-        <v>57.96657294644957</v>
+        <v>57.96657294644955</v>
       </c>
       <c r="G19" t="n">
-        <v>79.46630147808877</v>
+        <v>79.46630147808874</v>
       </c>
       <c r="H19" t="n">
-        <v>65.25762159275088</v>
+        <v>65.25762159275085</v>
       </c>
       <c r="I19" t="n">
-        <v>35.81208280293531</v>
+        <v>35.81208280293528</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.71870659130912</v>
+        <v>41.71870659130961</v>
       </c>
       <c r="S19" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T19" t="n">
         <v>135.918429644277</v>
@@ -2081,7 +2081,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C20" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D20" t="n">
         <v>267.2285665442013</v>
@@ -2093,13 +2093,13 @@
         <v>319.4215706652298</v>
       </c>
       <c r="G20" t="n">
-        <v>325.4624288694551</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H20" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I20" t="n">
-        <v>31.04156581740862</v>
+        <v>31.04156581740858</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.19841205165851</v>
+        <v>67.19841205165847</v>
       </c>
       <c r="T20" t="n">
         <v>125.1973880384843</v>
       </c>
       <c r="U20" t="n">
-        <v>163.7003111458192</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V20" t="n">
         <v>240.2977833936532</v>
@@ -2147,7 +2147,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.7834635795719</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.37750510545563</v>
+        <v>92.37750510545558</v>
       </c>
       <c r="C22" t="n">
-        <v>79.79234602214616</v>
+        <v>79.79234602214673</v>
       </c>
       <c r="D22" t="n">
-        <v>61.16099794173068</v>
+        <v>61.16099794173064</v>
       </c>
       <c r="E22" t="n">
-        <v>58.9794875700875</v>
+        <v>58.97948757008746</v>
       </c>
       <c r="F22" t="n">
-        <v>57.96657294644957</v>
+        <v>57.96657294644953</v>
       </c>
       <c r="G22" t="n">
-        <v>79.46630147808877</v>
+        <v>79.46630147808874</v>
       </c>
       <c r="H22" t="n">
-        <v>65.25762159275088</v>
+        <v>65.25762159275085</v>
       </c>
       <c r="I22" t="n">
-        <v>35.81208280293531</v>
+        <v>35.81208280293527</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.71870659130964</v>
+        <v>41.7187065913096</v>
       </c>
       <c r="S22" t="n">
-        <v>117.9114068236365</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T22" t="n">
         <v>135.918429644277</v>
@@ -2302,7 +2302,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X22" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y22" t="n">
         <v>131.1301782756131</v>
@@ -2330,7 +2330,7 @@
         <v>319.4215706652298</v>
       </c>
       <c r="G23" t="n">
-        <v>325.4624288694549</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H23" t="n">
         <v>227.5864089987339</v>
@@ -2713,25 +2713,25 @@
         <v>99.82999076998419</v>
       </c>
       <c r="C28" t="n">
-        <v>84.10669619978484</v>
+        <v>68.43934541369912</v>
       </c>
       <c r="D28" t="n">
         <v>68.61348360625925</v>
       </c>
       <c r="E28" t="n">
-        <v>66.43197323461607</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>65.41905861097814</v>
       </c>
       <c r="G28" t="n">
-        <v>86.91878714261733</v>
+        <v>86.91878714261735</v>
       </c>
       <c r="H28" t="n">
-        <v>72.71010725727945</v>
+        <v>72.71010725727946</v>
       </c>
       <c r="I28" t="n">
-        <v>43.26456846746387</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.3638924881655</v>
       </c>
       <c r="T28" t="n">
         <v>143.3709153088056</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.82999076998419</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>87.24483168667473</v>
@@ -2962,13 +2962,13 @@
         <v>65.41905861097814</v>
       </c>
       <c r="G31" t="n">
-        <v>86.91878714261733</v>
+        <v>86.91878714261735</v>
       </c>
       <c r="H31" t="n">
-        <v>63.66534798201517</v>
+        <v>72.71010725727946</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>43.26456846746387</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>49.17119225583821</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.3638924881655</v>
       </c>
       <c r="T31" t="n">
         <v>143.3709153088056</v>
@@ -3007,7 +3007,7 @@
         <v>206.2586652461439</v>
       </c>
       <c r="V31" t="n">
-        <v>172.1356539118749</v>
+        <v>143.4636167068036</v>
       </c>
       <c r="W31" t="n">
         <v>206.5210089246379</v>
@@ -3029,7 +3029,7 @@
         <v>302.7318522515275</v>
       </c>
       <c r="C32" t="n">
-        <v>285.2709023590544</v>
+        <v>285.2709023590545</v>
       </c>
       <c r="D32" t="n">
         <v>274.6810522087299</v>
@@ -3047,7 +3047,7 @@
         <v>235.0388946632625</v>
       </c>
       <c r="I32" t="n">
-        <v>38.49405148193719</v>
+        <v>38.49405148193722</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>74.65089771618707</v>
+        <v>74.6508977161871</v>
       </c>
       <c r="T32" t="n">
         <v>132.6498737030129</v>
       </c>
       <c r="U32" t="n">
-        <v>171.1527968103475</v>
+        <v>171.1527968103476</v>
       </c>
       <c r="V32" t="n">
         <v>247.7502690581818</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.82999076998419</v>
+        <v>99.82999076998422</v>
       </c>
       <c r="C34" t="n">
-        <v>87.24483168667473</v>
+        <v>39.75496706586189</v>
       </c>
       <c r="D34" t="n">
-        <v>68.61348360625925</v>
+        <v>68.61348360625928</v>
       </c>
       <c r="E34" t="n">
-        <v>66.43197323461607</v>
+        <v>66.43197323461609</v>
       </c>
       <c r="F34" t="n">
-        <v>65.41905861097814</v>
+        <v>65.41905861097817</v>
       </c>
       <c r="G34" t="n">
-        <v>86.91878714261733</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>72.71010725727945</v>
+        <v>72.71010725727949</v>
       </c>
       <c r="I34" t="n">
-        <v>40.12643298057399</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>49.17119225583824</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.3638924881656</v>
       </c>
       <c r="T34" t="n">
         <v>143.3709153088056</v>
@@ -3250,7 +3250,7 @@
         <v>206.5210089246379</v>
       </c>
       <c r="X34" t="n">
-        <v>145.707665977084</v>
+        <v>145.7076659770841</v>
       </c>
       <c r="Y34" t="n">
         <v>138.5826639401417</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.7318522515275</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C35" t="n">
-        <v>285.2709023590544</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D35" t="n">
-        <v>274.6810522087299</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E35" t="n">
-        <v>301.9283806603087</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F35" t="n">
-        <v>326.8740563297583</v>
+        <v>319.4215706652296</v>
       </c>
       <c r="G35" t="n">
-        <v>332.9149145339837</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H35" t="n">
-        <v>235.0388946632625</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I35" t="n">
-        <v>38.49405148193719</v>
+        <v>31.04156581740853</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>74.65089771618707</v>
+        <v>67.19841205165841</v>
       </c>
       <c r="T35" t="n">
-        <v>132.6498737030129</v>
+        <v>125.1973880384842</v>
       </c>
       <c r="U35" t="n">
-        <v>171.1527968103475</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V35" t="n">
-        <v>247.7502690581818</v>
+        <v>240.2977833936531</v>
       </c>
       <c r="W35" t="n">
-        <v>269.2389793054599</v>
+        <v>261.7864936409312</v>
       </c>
       <c r="X35" t="n">
-        <v>289.7291112665159</v>
+        <v>282.2766256019872</v>
       </c>
       <c r="Y35" t="n">
-        <v>306.2359492441005</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.82999076998419</v>
+        <v>92.37750510545553</v>
       </c>
       <c r="C37" t="n">
-        <v>87.24483168667473</v>
+        <v>79.79234602214606</v>
       </c>
       <c r="D37" t="n">
-        <v>68.61348360625925</v>
+        <v>61.16099794173059</v>
       </c>
       <c r="E37" t="n">
-        <v>66.43197323461607</v>
+        <v>58.9794875700874</v>
       </c>
       <c r="F37" t="n">
-        <v>65.41905861097814</v>
+        <v>57.9665729464507</v>
       </c>
       <c r="G37" t="n">
-        <v>86.91878714261733</v>
+        <v>79.46630147808868</v>
       </c>
       <c r="H37" t="n">
-        <v>72.71010725727945</v>
+        <v>65.25762159275079</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>35.81208280293521</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>49.17119225583821</v>
+        <v>41.71870659130954</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T37" t="n">
-        <v>143.3709153088056</v>
+        <v>135.9184296442769</v>
       </c>
       <c r="U37" t="n">
-        <v>206.2586652461439</v>
+        <v>198.8061795816152</v>
       </c>
       <c r="V37" t="n">
-        <v>172.1356539118749</v>
+        <v>164.6831682473462</v>
       </c>
       <c r="W37" t="n">
-        <v>197.4762496493737</v>
+        <v>199.0685232601092</v>
       </c>
       <c r="X37" t="n">
-        <v>145.707665977084</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.5826639401417</v>
+        <v>131.130178275613</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>302.7318522515275</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C38" t="n">
-        <v>285.2709023590544</v>
+        <v>277.8184166945261</v>
       </c>
       <c r="D38" t="n">
-        <v>274.6810522087299</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E38" t="n">
-        <v>301.9283806603087</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F38" t="n">
-        <v>326.8740563297583</v>
+        <v>319.4215706652296</v>
       </c>
       <c r="G38" t="n">
-        <v>332.9149145339837</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H38" t="n">
-        <v>235.0388946632625</v>
+        <v>227.5864089987337</v>
       </c>
       <c r="I38" t="n">
-        <v>38.49405148193718</v>
+        <v>31.04156581740847</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>74.65089771618706</v>
+        <v>67.19841205165835</v>
       </c>
       <c r="T38" t="n">
-        <v>132.6498737030129</v>
+        <v>125.1973880384842</v>
       </c>
       <c r="U38" t="n">
-        <v>171.1527968103475</v>
+        <v>163.7003111458188</v>
       </c>
       <c r="V38" t="n">
-        <v>247.7502690581818</v>
+        <v>240.2977833936531</v>
       </c>
       <c r="W38" t="n">
-        <v>269.2389793054599</v>
+        <v>261.7864936409312</v>
       </c>
       <c r="X38" t="n">
-        <v>289.7291112665159</v>
+        <v>282.2766256019872</v>
       </c>
       <c r="Y38" t="n">
-        <v>306.2359492441005</v>
+        <v>298.7834635795717</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>92.37750510545547</v>
       </c>
       <c r="C40" t="n">
-        <v>87.24483168667471</v>
+        <v>79.79234602214601</v>
       </c>
       <c r="D40" t="n">
-        <v>68.61348360625924</v>
+        <v>61.16099794173053</v>
       </c>
       <c r="E40" t="n">
-        <v>66.43197323461605</v>
+        <v>58.97948757008734</v>
       </c>
       <c r="F40" t="n">
-        <v>65.41905861097813</v>
+        <v>57.96657294644942</v>
       </c>
       <c r="G40" t="n">
-        <v>86.91878714261732</v>
+        <v>79.46630147808862</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>65.25762159275074</v>
       </c>
       <c r="I40" t="n">
-        <v>38.13144626383388</v>
+        <v>35.81208280293515</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>49.17119225583819</v>
+        <v>41.71870659130948</v>
       </c>
       <c r="S40" t="n">
-        <v>125.3638924881655</v>
+        <v>117.9114068236394</v>
       </c>
       <c r="T40" t="n">
-        <v>143.3709153088056</v>
+        <v>135.9184296442769</v>
       </c>
       <c r="U40" t="n">
-        <v>206.2586652461439</v>
+        <v>198.8061795816151</v>
       </c>
       <c r="V40" t="n">
-        <v>172.1356539118749</v>
+        <v>164.6831682473462</v>
       </c>
       <c r="W40" t="n">
-        <v>206.5210089246379</v>
+        <v>199.0685232601092</v>
       </c>
       <c r="X40" t="n">
-        <v>145.707665977084</v>
+        <v>138.2551803125553</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.5826639401417</v>
+        <v>131.130178275613</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>302.7318522515275</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C41" t="n">
-        <v>285.2709023590544</v>
+        <v>277.8184166945252</v>
       </c>
       <c r="D41" t="n">
-        <v>274.6810522087299</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E41" t="n">
-        <v>301.9283806603087</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F41" t="n">
-        <v>326.8740563297583</v>
+        <v>319.4215706652297</v>
       </c>
       <c r="G41" t="n">
-        <v>332.9149145339837</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H41" t="n">
-        <v>235.0388946632625</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I41" t="n">
-        <v>38.49405148193718</v>
+        <v>31.04156581740857</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>74.65089771618706</v>
+        <v>67.19841205165844</v>
       </c>
       <c r="T41" t="n">
-        <v>132.6498737030129</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U41" t="n">
-        <v>171.1527968103475</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V41" t="n">
-        <v>247.7502690581818</v>
+        <v>240.2977833936532</v>
       </c>
       <c r="W41" t="n">
-        <v>269.2389793054599</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X41" t="n">
-        <v>289.7291112665159</v>
+        <v>282.2766256019873</v>
       </c>
       <c r="Y41" t="n">
-        <v>306.2359492441005</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.82999076998418</v>
+        <v>92.37750510545557</v>
       </c>
       <c r="C43" t="n">
-        <v>78.20007241141055</v>
+        <v>79.79234602214611</v>
       </c>
       <c r="D43" t="n">
-        <v>68.61348360625924</v>
+        <v>61.16099794173063</v>
       </c>
       <c r="E43" t="n">
-        <v>66.43197323461605</v>
+        <v>58.97948757008744</v>
       </c>
       <c r="F43" t="n">
-        <v>65.41905861097813</v>
+        <v>57.96657294644952</v>
       </c>
       <c r="G43" t="n">
-        <v>86.91878714261732</v>
+        <v>79.46630147808872</v>
       </c>
       <c r="H43" t="n">
-        <v>72.71010725727943</v>
+        <v>65.25762159275182</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.81208280293525</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.17119225583819</v>
+        <v>41.71870659130958</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T43" t="n">
-        <v>143.3709153088056</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U43" t="n">
-        <v>206.2586652461439</v>
+        <v>198.8061795816152</v>
       </c>
       <c r="V43" t="n">
-        <v>172.1356539118749</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W43" t="n">
-        <v>206.5210089246379</v>
+        <v>199.0685232601093</v>
       </c>
       <c r="X43" t="n">
-        <v>145.707665977084</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.5826639401417</v>
+        <v>131.130178275613</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>302.7318522515275</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C44" t="n">
-        <v>285.2709023590544</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D44" t="n">
-        <v>274.6810522087299</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E44" t="n">
-        <v>301.9283806603087</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F44" t="n">
-        <v>326.8740563297583</v>
+        <v>319.4215706652297</v>
       </c>
       <c r="G44" t="n">
-        <v>332.9149145339837</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H44" t="n">
-        <v>235.0388946632625</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I44" t="n">
-        <v>38.49405148193725</v>
+        <v>31.04156581740857</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>74.65089771618706</v>
+        <v>67.19841205165845</v>
       </c>
       <c r="T44" t="n">
-        <v>132.6498737030129</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U44" t="n">
-        <v>171.1527968103475</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V44" t="n">
-        <v>247.7502690581818</v>
+        <v>240.2977833936532</v>
       </c>
       <c r="W44" t="n">
-        <v>269.2389793054599</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X44" t="n">
-        <v>289.7291112665159</v>
+        <v>282.2766256019873</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.2359492441005</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.82999076998418</v>
+        <v>92.37750510545557</v>
       </c>
       <c r="C46" t="n">
-        <v>87.24483168667471</v>
+        <v>79.79234602214611</v>
       </c>
       <c r="D46" t="n">
-        <v>68.61348360625924</v>
+        <v>61.16099794173063</v>
       </c>
       <c r="E46" t="n">
-        <v>66.43197323461605</v>
+        <v>58.97948757008744</v>
       </c>
       <c r="F46" t="n">
-        <v>65.41905861097813</v>
+        <v>57.96657294644952</v>
       </c>
       <c r="G46" t="n">
-        <v>86.91878714261732</v>
+        <v>79.46630147808871</v>
       </c>
       <c r="H46" t="n">
-        <v>72.71010725727943</v>
+        <v>65.25762159275082</v>
       </c>
       <c r="I46" t="n">
-        <v>40.12643298057413</v>
+        <v>35.81208280293525</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.71870659130958</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T46" t="n">
-        <v>143.3709153088056</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U46" t="n">
-        <v>206.2586652461439</v>
+        <v>198.8061795816153</v>
       </c>
       <c r="V46" t="n">
-        <v>172.1356539118749</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W46" t="n">
-        <v>206.5210089246379</v>
+        <v>199.0685232601093</v>
       </c>
       <c r="X46" t="n">
-        <v>145.707665977084</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.5826639401417</v>
+        <v>131.130178275613</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.9333851608903</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="C2" t="n">
-        <v>25.9333851608903</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="D2" t="n">
-        <v>25.9333851608903</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="E2" t="n">
-        <v>25.9333851608903</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="F2" t="n">
-        <v>18.98788441168682</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J2" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="M2" t="n">
         <v>47.22142444577459</v>
-      </c>
-      <c r="L2" t="n">
-        <v>90.91227510121089</v>
-      </c>
-      <c r="M2" t="n">
-        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
         <v>90.91227510121089</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P2" t="n">
         <v>176.5286895169144</v>
@@ -4352,28 +4352,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>77.28117035226589</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>77.28117035226589</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U2" t="n">
-        <v>77.28117035226589</v>
+        <v>127.1592782043951</v>
       </c>
       <c r="V2" t="n">
-        <v>32.70321845405519</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="W2" t="n">
-        <v>25.9333851608903</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="X2" t="n">
-        <v>25.9333851608903</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.9333851608903</v>
+        <v>38.00337440797365</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="C3" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="D3" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="E3" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="F3" t="n">
         <v>138.0185621377561</v>
       </c>
-      <c r="C3" t="n">
-        <v>138.0185621377561</v>
-      </c>
-      <c r="D3" t="n">
-        <v>138.0185621377561</v>
-      </c>
-      <c r="E3" t="n">
-        <v>138.0185621377561</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>93.44061023954541</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>48.8626583413347</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
         <v>4.284706443124001</v>
@@ -4413,46 +4413,46 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
+        <v>89.14698820604177</v>
+      </c>
+      <c r="P3" t="n">
         <v>132.8378388614781</v>
-      </c>
-      <c r="P3" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.7302547212757</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C4" t="n">
-        <v>175.7302547212757</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D4" t="n">
-        <v>175.7302547212757</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E4" t="n">
-        <v>131.152302823065</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F4" t="n">
-        <v>86.57435092485433</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G4" t="n">
-        <v>86.57435092485433</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H4" t="n">
-        <v>86.57435092485433</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I4" t="n">
-        <v>86.57435092485433</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J4" t="n">
-        <v>41.99639902664363</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>69.3105240343566</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>108.4985622265788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>152.1894128820151</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>175.7302547212757</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R4" t="n">
-        <v>175.7302547212757</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S4" t="n">
-        <v>175.7302547212757</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="T4" t="n">
-        <v>175.7302547212757</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="U4" t="n">
-        <v>175.7302547212757</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="V4" t="n">
-        <v>175.7302547212757</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="W4" t="n">
-        <v>175.7302547212757</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="X4" t="n">
-        <v>175.7302547212757</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.7302547212757</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.58132630618435</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C5" t="n">
-        <v>82.58132630618435</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D5" t="n">
-        <v>82.58132630618435</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E5" t="n">
-        <v>82.58132630618435</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F5" t="n">
-        <v>75.63582555698088</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G5" t="n">
-        <v>60.17851493563234</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L5" t="n">
-        <v>45.45613755060546</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O5" t="n">
         <v>176.5286895169144</v>
@@ -4586,31 +4586,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>131.9507376187037</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T5" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U5" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V5" t="n">
-        <v>87.37278572049297</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W5" t="n">
-        <v>87.37278572049297</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X5" t="n">
-        <v>87.37278572049297</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.58132630618435</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.68647758675968</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="C6" t="n">
-        <v>48.10852568854899</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="D6" t="n">
-        <v>48.10852568854899</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="E6" t="n">
-        <v>48.10852568854899</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="F6" t="n">
-        <v>48.10852568854899</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G6" t="n">
-        <v>48.10852568854899</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H6" t="n">
-        <v>48.10852568854899</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
         <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O6" t="n">
         <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
         <v>176.5286895169144</v>
@@ -4683,13 +4683,13 @@
         <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>137.2644294849704</v>
+        <v>138.0185621377561</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H7" t="n">
         <v>3.530573790338288</v>
@@ -4753,22 +4753,22 @@
         <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>137.2644294849704</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>92.68647758675968</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>48.10852568854899</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>260.1296789433756</v>
+        <v>29.715096122562</v>
       </c>
       <c r="C8" t="n">
-        <v>260.1296789433756</v>
+        <v>29.715096122562</v>
       </c>
       <c r="D8" t="n">
-        <v>260.1296789433756</v>
+        <v>29.715096122562</v>
       </c>
       <c r="E8" t="n">
-        <v>260.1296789433756</v>
+        <v>29.715096122562</v>
       </c>
       <c r="F8" t="n">
-        <v>253.1841781941721</v>
+        <v>22.76959537335853</v>
       </c>
       <c r="G8" t="n">
-        <v>170.9601660500528</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="H8" t="n">
-        <v>88.73615390593352</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="I8" t="n">
-        <v>6.512141761814246</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="J8" t="n">
-        <v>6.512141761814246</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="K8" t="n">
-        <v>83.84382518335843</v>
+        <v>97.80180855813363</v>
       </c>
       <c r="L8" t="n">
-        <v>164.4315794858097</v>
+        <v>97.80180855813363</v>
       </c>
       <c r="M8" t="n">
-        <v>245.019333788261</v>
+        <v>185.4646585023249</v>
       </c>
       <c r="N8" t="n">
-        <v>245.019333788261</v>
+        <v>185.4646585023249</v>
       </c>
       <c r="O8" t="n">
-        <v>325.6070880907123</v>
+        <v>275.9541823084486</v>
       </c>
       <c r="P8" t="n">
-        <v>325.6070880907123</v>
+        <v>365.6142376004996</v>
       </c>
       <c r="Q8" t="n">
-        <v>325.6070880907123</v>
+        <v>355.5226222322725</v>
       </c>
       <c r="R8" t="n">
-        <v>325.6070880907123</v>
+        <v>263.1957945553787</v>
       </c>
       <c r="S8" t="n">
-        <v>325.6070880907123</v>
+        <v>170.8689668784848</v>
       </c>
       <c r="T8" t="n">
-        <v>260.1296789433756</v>
+        <v>78.54213920159096</v>
       </c>
       <c r="U8" t="n">
-        <v>260.1296789433756</v>
+        <v>29.715096122562</v>
       </c>
       <c r="V8" t="n">
-        <v>260.1296789433756</v>
+        <v>29.715096122562</v>
       </c>
       <c r="W8" t="n">
-        <v>260.1296789433756</v>
+        <v>29.715096122562</v>
       </c>
       <c r="X8" t="n">
-        <v>260.1296789433756</v>
+        <v>29.715096122562</v>
       </c>
       <c r="Y8" t="n">
-        <v>260.1296789433756</v>
+        <v>29.715096122562</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>170.9601660500528</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="C9" t="n">
-        <v>170.9601660500528</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="D9" t="n">
-        <v>170.9601660500528</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="E9" t="n">
-        <v>88.73615390593352</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="F9" t="n">
-        <v>88.73615390593352</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="G9" t="n">
-        <v>88.73615390593352</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="H9" t="n">
-        <v>6.512141761814246</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="I9" t="n">
-        <v>6.512141761814246</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="J9" t="n">
-        <v>6.512141761814246</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="K9" t="n">
-        <v>6.512141761814246</v>
+        <v>97.80180855813363</v>
       </c>
       <c r="L9" t="n">
-        <v>87.09989606426554</v>
+        <v>188.2913323642573</v>
       </c>
       <c r="M9" t="n">
-        <v>87.09989606426554</v>
+        <v>278.7808561703809</v>
       </c>
       <c r="N9" t="n">
-        <v>167.6876503667168</v>
+        <v>278.7808561703809</v>
       </c>
       <c r="O9" t="n">
-        <v>245.019333788261</v>
+        <v>365.6142376004996</v>
       </c>
       <c r="P9" t="n">
-        <v>325.6070880907123</v>
+        <v>365.6142376004996</v>
       </c>
       <c r="Q9" t="n">
-        <v>325.6070880907123</v>
+        <v>365.6142376004996</v>
       </c>
       <c r="R9" t="n">
-        <v>325.6070880907123</v>
+        <v>273.2874099236057</v>
       </c>
       <c r="S9" t="n">
-        <v>325.6070880907123</v>
+        <v>191.9659401057977</v>
       </c>
       <c r="T9" t="n">
-        <v>243.383075946593</v>
+        <v>99.63911242890383</v>
       </c>
       <c r="U9" t="n">
-        <v>243.383075946593</v>
+        <v>99.63911242890383</v>
       </c>
       <c r="V9" t="n">
-        <v>243.383075946593</v>
+        <v>99.63911242890383</v>
       </c>
       <c r="W9" t="n">
-        <v>243.383075946593</v>
+        <v>99.63911242890383</v>
       </c>
       <c r="X9" t="n">
-        <v>170.9601660500528</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="Y9" t="n">
-        <v>170.9601660500528</v>
+        <v>7.312284752009991</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="C10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="D10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="E10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="F10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="G10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="H10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="I10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="J10" t="n">
-        <v>6.512141761814246</v>
+        <v>29.80672093977045</v>
       </c>
       <c r="K10" t="n">
-        <v>6.512141761814246</v>
+        <v>7.312284752009991</v>
       </c>
       <c r="L10" t="n">
-        <v>33.82626676952722</v>
+        <v>34.62640975972297</v>
       </c>
       <c r="M10" t="n">
-        <v>73.0143049617494</v>
+        <v>73.81444795194514</v>
       </c>
       <c r="N10" t="n">
-        <v>116.7051556171857</v>
+        <v>117.5052986073814</v>
       </c>
       <c r="O10" t="n">
-        <v>141.044432252085</v>
+        <v>141.8445752422807</v>
       </c>
       <c r="P10" t="n">
-        <v>138.2955022166239</v>
+        <v>139.0956452068196</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.2955022166239</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="R10" t="n">
-        <v>138.2955022166239</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="S10" t="n">
-        <v>138.2955022166239</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="T10" t="n">
-        <v>138.2955022166239</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="U10" t="n">
-        <v>56.0714900725046</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="V10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="W10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="X10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.512141761814246</v>
+        <v>52.06327828591617</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E11" t="n">
-        <v>984.3257357207788</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F11" t="n">
-        <v>661.6776845437792</v>
+        <v>661.6776845437794</v>
       </c>
       <c r="G11" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H11" t="n">
         <v>103.0424947779316</v>
@@ -5039,13 +5039,13 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J11" t="n">
-        <v>147.4108273418325</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K11" t="n">
-        <v>550.877940361878</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L11" t="n">
-        <v>1103.691198608077</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M11" t="n">
         <v>1735.409009591389</v>
@@ -5127,13 +5127,13 @@
         <v>1024.136573819474</v>
       </c>
       <c r="M12" t="n">
-        <v>1251.258460284988</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N12" t="n">
-        <v>1449.915201937652</v>
+        <v>1876.839602426862</v>
       </c>
       <c r="O12" t="n">
-        <v>1999.351210690375</v>
+        <v>2036.351915095622</v>
       </c>
       <c r="P12" t="n">
         <v>2423.318979171212</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.5514286534672</v>
+        <v>514.5514286534667</v>
       </c>
       <c r="C13" t="n">
-        <v>433.953099338168</v>
+        <v>433.9530993381675</v>
       </c>
       <c r="D13" t="n">
-        <v>372.1743135384401</v>
+        <v>372.1743135384395</v>
       </c>
       <c r="E13" t="n">
-        <v>312.5990735686547</v>
+        <v>312.5990735686542</v>
       </c>
       <c r="F13" t="n">
-        <v>254.0469796833521</v>
+        <v>254.0469796833516</v>
       </c>
       <c r="G13" t="n">
-        <v>173.7779882913433</v>
+        <v>173.7779882913427</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8611988037161</v>
+        <v>107.8611988037156</v>
       </c>
       <c r="I13" t="n">
         <v>71.68737779065016</v>
@@ -5209,7 +5209,7 @@
         <v>891.6387408462324</v>
       </c>
       <c r="N13" t="n">
-        <v>1184.042036008054</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O13" t="n">
         <v>1444.716861722369</v>
@@ -5218,13 +5218,13 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q13" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R13" t="n">
         <v>1704.602510724789</v>
       </c>
       <c r="S13" t="n">
-        <v>1585.500079589803</v>
+        <v>1585.500079589802</v>
       </c>
       <c r="T13" t="n">
         <v>1448.208736514775</v>
@@ -5233,16 +5233,16 @@
         <v>1247.394413705063</v>
       </c>
       <c r="V13" t="n">
-        <v>1081.047779111784</v>
+        <v>1081.047779111783</v>
       </c>
       <c r="W13" t="n">
-        <v>879.968462687431</v>
+        <v>879.9684626874306</v>
       </c>
       <c r="X13" t="n">
-        <v>740.3167654020215</v>
+        <v>740.316765402021</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.8620398710991</v>
+        <v>607.8620398710987</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5276,7 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J14" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418325</v>
       </c>
       <c r="K14" t="n">
         <v>550.877940361878</v>
@@ -5309,10 +5309,10 @@
         <v>3390.029697522263</v>
       </c>
       <c r="U14" t="n">
-        <v>3224.675847880021</v>
+        <v>3224.675847880022</v>
       </c>
       <c r="V14" t="n">
-        <v>2981.950814149058</v>
+        <v>2981.950814149059</v>
       </c>
       <c r="W14" t="n">
         <v>2717.520012491552</v>
@@ -5361,16 +5361,16 @@
         <v>519.7750339533557</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.136573819474</v>
+        <v>925.9912517714208</v>
       </c>
       <c r="M15" t="n">
-        <v>1251.258460284988</v>
+        <v>1566.536601238525</v>
       </c>
       <c r="N15" t="n">
-        <v>1449.915201937652</v>
+        <v>1765.19334289119</v>
       </c>
       <c r="O15" t="n">
-        <v>1999.351210690375</v>
+        <v>2314.629351643913</v>
       </c>
       <c r="P15" t="n">
         <v>2423.318979171212</v>
@@ -5413,16 +5413,16 @@
         <v>514.5514286534667</v>
       </c>
       <c r="C16" t="n">
-        <v>433.9530993381675</v>
+        <v>433.9530993381681</v>
       </c>
       <c r="D16" t="n">
-        <v>372.1743135384395</v>
+        <v>372.1743135384401</v>
       </c>
       <c r="E16" t="n">
-        <v>312.5990735686547</v>
+        <v>312.5990735686548</v>
       </c>
       <c r="F16" t="n">
-        <v>254.0469796833521</v>
+        <v>254.0469796833522</v>
       </c>
       <c r="G16" t="n">
         <v>173.7779882913433</v>
@@ -5513,7 +5513,7 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J17" t="n">
-        <v>147.4108273418326</v>
+        <v>147.4108273418325</v>
       </c>
       <c r="K17" t="n">
         <v>550.877940361878</v>
@@ -5601,13 +5601,13 @@
         <v>1024.136573819474</v>
       </c>
       <c r="M18" t="n">
-        <v>1664.681923286579</v>
+        <v>1251.258460284988</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.338664939244</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.850977608004</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P18" t="n">
         <v>2423.318979171212</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.5514286534672</v>
+        <v>514.5514286534669</v>
       </c>
       <c r="C19" t="n">
-        <v>433.953099338168</v>
+        <v>433.9530993381678</v>
       </c>
       <c r="D19" t="n">
-        <v>372.1743135384401</v>
+        <v>372.1743135384398</v>
       </c>
       <c r="E19" t="n">
-        <v>312.5990735686547</v>
+        <v>312.5990735686545</v>
       </c>
       <c r="F19" t="n">
-        <v>254.0469796833521</v>
+        <v>254.046979683352</v>
       </c>
       <c r="G19" t="n">
-        <v>173.7779882913433</v>
+        <v>173.7779882913432</v>
       </c>
       <c r="H19" t="n">
         <v>107.8611988037161</v>
@@ -5677,13 +5677,13 @@
         <v>328.3762845747424</v>
       </c>
       <c r="L19" t="n">
-        <v>599.7892098012776</v>
+        <v>599.7892098012777</v>
       </c>
       <c r="M19" t="n">
-        <v>891.6387408462324</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N19" t="n">
-        <v>1184.042036008053</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O19" t="n">
         <v>1444.716861722369</v>
@@ -5692,13 +5692,13 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q19" t="n">
-        <v>1746.742618392778</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R19" t="n">
         <v>1704.602510724789</v>
       </c>
       <c r="S19" t="n">
-        <v>1585.500079589803</v>
+        <v>1585.500079589802</v>
       </c>
       <c r="T19" t="n">
         <v>1448.208736514775</v>
@@ -5710,13 +5710,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W19" t="n">
-        <v>879.968462687431</v>
+        <v>879.9684626874308</v>
       </c>
       <c r="X19" t="n">
-        <v>740.3167654020215</v>
+        <v>740.3167654020212</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.8620398710991</v>
+        <v>607.8620398710989</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>661.6776845437792</v>
       </c>
       <c r="G20" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H20" t="n">
         <v>103.0424947779316</v>
@@ -5753,22 +5753,22 @@
         <v>260.3272768043865</v>
       </c>
       <c r="K20" t="n">
-        <v>550.877940361878</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L20" t="n">
-        <v>1103.691198608077</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M20" t="n">
-        <v>1735.409009591389</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N20" t="n">
-        <v>2362.716677651235</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O20" t="n">
-        <v>2909.877882418313</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P20" t="n">
-        <v>3339.192928757607</v>
+        <v>3452.109378220161</v>
       </c>
       <c r="Q20" t="n">
         <v>3584.368889532508</v>
@@ -5841,7 +5841,7 @@
         <v>836.5019683236544</v>
       </c>
       <c r="N21" t="n">
-        <v>1449.915201937652</v>
+        <v>1509.707660576437</v>
       </c>
       <c r="O21" t="n">
         <v>1999.351210690375</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>514.5514286534672</v>
+        <v>514.5514286534676</v>
       </c>
       <c r="C22" t="n">
-        <v>433.953099338168</v>
+        <v>433.9530993381679</v>
       </c>
       <c r="D22" t="n">
-        <v>372.1743135384401</v>
+        <v>372.1743135384399</v>
       </c>
       <c r="E22" t="n">
-        <v>312.5990735686547</v>
+        <v>312.5990735686546</v>
       </c>
       <c r="F22" t="n">
-        <v>254.0469796833521</v>
+        <v>254.046979683352</v>
       </c>
       <c r="G22" t="n">
-        <v>173.7779882913433</v>
+        <v>173.7779882913432</v>
       </c>
       <c r="H22" t="n">
         <v>107.8611988037161</v>
@@ -5908,37 +5908,37 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7484246534157</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K22" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L22" t="n">
-        <v>599.7892098012776</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M22" t="n">
-        <v>891.6387408462324</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N22" t="n">
-        <v>1184.042036008053</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O22" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P22" t="n">
         <v>1656.744368646702</v>
       </c>
       <c r="Q22" t="n">
-        <v>1746.742618392778</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R22" t="n">
-        <v>1704.602510724789</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S22" t="n">
         <v>1585.500079589803</v>
       </c>
       <c r="T22" t="n">
-        <v>1448.208736514775</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U22" t="n">
         <v>1247.394413705063</v>
@@ -5947,13 +5947,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W22" t="n">
-        <v>879.968462687431</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X22" t="n">
-        <v>740.3167654020215</v>
+        <v>740.3167654020218</v>
       </c>
       <c r="Y22" t="n">
-        <v>607.8620398710991</v>
+        <v>607.8620398710996</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5972,13 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E23" t="n">
-        <v>984.3257357207788</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F23" t="n">
-        <v>661.6776845437789</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G23" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H23" t="n">
         <v>103.0424947779316</v>
@@ -5987,19 +5987,19 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J23" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418325</v>
       </c>
       <c r="K23" t="n">
-        <v>663.794389824432</v>
+        <v>550.877940361878</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M23" t="n">
-        <v>1848.325459053943</v>
+        <v>1735.409009591389</v>
       </c>
       <c r="N23" t="n">
-        <v>2475.633127113789</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O23" t="n">
         <v>2909.877882418313</v>
@@ -6020,10 +6020,10 @@
         <v>3390.029697522263</v>
       </c>
       <c r="U23" t="n">
-        <v>3224.675847880021</v>
+        <v>3224.675847880022</v>
       </c>
       <c r="V23" t="n">
-        <v>2981.950814149058</v>
+        <v>2981.950814149059</v>
       </c>
       <c r="W23" t="n">
         <v>2717.520012491552</v>
@@ -6066,22 +6066,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J24" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K24" t="n">
-        <v>401.11578209646</v>
+        <v>314.2127031556089</v>
       </c>
       <c r="L24" t="n">
-        <v>597.2121733302649</v>
+        <v>451.4423011713029</v>
       </c>
       <c r="M24" t="n">
-        <v>776.7095096848698</v>
+        <v>1091.987650638408</v>
       </c>
       <c r="N24" t="n">
-        <v>1449.915201937652</v>
+        <v>1765.19334289119</v>
       </c>
       <c r="O24" t="n">
-        <v>1999.351210690375</v>
+        <v>2314.629351643913</v>
       </c>
       <c r="P24" t="n">
         <v>2423.318979171212</v>
@@ -6251,13 +6251,13 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S26" t="n">
-        <v>3624.184809142965</v>
+        <v>3624.184809142966</v>
       </c>
       <c r="T26" t="n">
-        <v>3490.19503772578</v>
+        <v>3490.195037725781</v>
       </c>
       <c r="U26" t="n">
-        <v>3317.313424786035</v>
+        <v>3317.313424786036</v>
       </c>
       <c r="V26" t="n">
         <v>3067.060627757569</v>
@@ -6266,10 +6266,10 @@
         <v>2795.102062802559</v>
       </c>
       <c r="X26" t="n">
-        <v>2502.446394856583</v>
+        <v>2502.446394856584</v>
       </c>
       <c r="Y26" t="n">
-        <v>2193.117153195875</v>
+        <v>2193.117153195876</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6312,7 @@
         <v>907.7817392985492</v>
       </c>
       <c r="M27" t="n">
-        <v>1253.562877620958</v>
+        <v>1087.279075653154</v>
       </c>
       <c r="N27" t="n">
         <v>1452.219619273623</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.3803552468216</v>
+        <v>439.7501608143311</v>
       </c>
       <c r="C28" t="n">
-        <v>481.4240964591602</v>
+        <v>370.6195088813017</v>
       </c>
       <c r="D28" t="n">
-        <v>412.1175473619286</v>
+        <v>301.3129597840701</v>
       </c>
       <c r="E28" t="n">
-        <v>345.0145440946397</v>
+        <v>301.3129597840701</v>
       </c>
       <c r="F28" t="n">
-        <v>278.9346869118335</v>
+        <v>235.2331026012639</v>
       </c>
       <c r="G28" t="n">
-        <v>191.137932222321</v>
+        <v>147.4363479117514</v>
       </c>
       <c r="H28" t="n">
-        <v>117.6933794371902</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I28" t="n">
         <v>73.99179512662066</v>
@@ -6409,25 +6409,25 @@
         <v>1690.023349265683</v>
       </c>
       <c r="S28" t="n">
-        <v>1690.023349265683</v>
+        <v>1563.393154833192</v>
       </c>
       <c r="T28" t="n">
-        <v>1545.204242893152</v>
+        <v>1418.574048460661</v>
       </c>
       <c r="U28" t="n">
-        <v>1336.862156785936</v>
+        <v>1210.231962353445</v>
       </c>
       <c r="V28" t="n">
-        <v>1162.987758895153</v>
+        <v>1036.357564462662</v>
       </c>
       <c r="W28" t="n">
-        <v>954.3806791732964</v>
+        <v>827.7504847408059</v>
       </c>
       <c r="X28" t="n">
-        <v>807.2012185903832</v>
+        <v>680.5710241578927</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.2187297619572</v>
+        <v>540.5885353294667</v>
       </c>
     </row>
     <row r="29">
@@ -6476,7 +6476,7 @@
         <v>2477.93754444976</v>
       </c>
       <c r="O29" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P29" t="n">
         <v>3454.413795556132</v>
@@ -6488,7 +6488,7 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S29" t="n">
-        <v>3624.184809142966</v>
+        <v>3624.184809142965</v>
       </c>
       <c r="T29" t="n">
         <v>3490.19503772578</v>
@@ -6543,22 +6543,22 @@
         <v>192.6510469835163</v>
       </c>
       <c r="K30" t="n">
-        <v>303.1315656586074</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L30" t="n">
-        <v>807.4931055247259</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M30" t="n">
-        <v>986.9904418793308</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N30" t="n">
-        <v>1660.196134132113</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O30" t="n">
-        <v>2209.632142884836</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P30" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q30" t="n">
         <v>2656.33685256765</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>516.7124842813284</v>
+        <v>569.550189071963</v>
       </c>
       <c r="C31" t="n">
-        <v>428.5863916685257</v>
+        <v>481.4240964591603</v>
       </c>
       <c r="D31" t="n">
-        <v>359.2798425712941</v>
+        <v>412.1175473619287</v>
       </c>
       <c r="E31" t="n">
-        <v>292.1768393040052</v>
+        <v>345.0145440946397</v>
       </c>
       <c r="F31" t="n">
-        <v>226.0969821211989</v>
+        <v>278.9346869118335</v>
       </c>
       <c r="G31" t="n">
-        <v>138.3002274316865</v>
+        <v>191.137932222321</v>
       </c>
       <c r="H31" t="n">
-        <v>73.99179512662066</v>
+        <v>117.6933794371902</v>
       </c>
       <c r="I31" t="n">
         <v>73.99179512662066</v>
@@ -6643,28 +6643,28 @@
         <v>1690.023349265683</v>
       </c>
       <c r="R31" t="n">
-        <v>1640.35547830019</v>
+        <v>1690.023349265683</v>
       </c>
       <c r="S31" t="n">
-        <v>1640.35547830019</v>
+        <v>1563.393154833192</v>
       </c>
       <c r="T31" t="n">
-        <v>1495.536371927659</v>
+        <v>1418.574048460661</v>
       </c>
       <c r="U31" t="n">
-        <v>1287.194285820442</v>
+        <v>1210.231962353445</v>
       </c>
       <c r="V31" t="n">
-        <v>1113.31988792966</v>
+        <v>1065.319218205159</v>
       </c>
       <c r="W31" t="n">
-        <v>904.7128082078032</v>
+        <v>856.7121384833022</v>
       </c>
       <c r="X31" t="n">
-        <v>757.53334762489</v>
+        <v>709.532677900389</v>
       </c>
       <c r="Y31" t="n">
-        <v>617.550858796464</v>
+        <v>569.550189071963</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1887.327403446858</v>
+        <v>1887.327403446857</v>
       </c>
       <c r="C32" t="n">
-        <v>1599.17497682155</v>
+        <v>1599.174976821549</v>
       </c>
       <c r="D32" t="n">
-        <v>1321.719368529904</v>
+        <v>1321.719368529903</v>
       </c>
       <c r="E32" t="n">
-        <v>1016.741206246764</v>
+        <v>1016.741206246763</v>
       </c>
       <c r="F32" t="n">
-        <v>686.5653917722602</v>
+        <v>686.5653917722593</v>
       </c>
       <c r="G32" t="n">
-        <v>350.2877003237918</v>
+        <v>350.2877003237909</v>
       </c>
       <c r="H32" t="n">
         <v>112.8746754114057</v>
       </c>
       <c r="I32" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J32" t="n">
         <v>262.631694140357</v>
@@ -6713,7 +6713,7 @@
         <v>2477.93754444976</v>
       </c>
       <c r="O32" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P32" t="n">
         <v>3454.413795556132</v>
@@ -6722,16 +6722,16 @@
         <v>3699.589756331033</v>
       </c>
       <c r="R32" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S32" t="n">
         <v>3624.184809142965</v>
       </c>
       <c r="T32" t="n">
-        <v>3490.19503772578</v>
+        <v>3490.195037725779</v>
       </c>
       <c r="U32" t="n">
-        <v>3317.313424786035</v>
+        <v>3317.313424786034</v>
       </c>
       <c r="V32" t="n">
         <v>3067.060627757568</v>
@@ -6740,10 +6740,10 @@
         <v>2795.102062802558</v>
       </c>
       <c r="X32" t="n">
-        <v>2502.446394856583</v>
+        <v>2502.446394856582</v>
       </c>
       <c r="Y32" t="n">
-        <v>2193.117153195875</v>
+        <v>2193.117153195874</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6765,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G33" t="n">
         <v>220.8126299914996</v>
@@ -6774,7 +6774,7 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I33" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J33" t="n">
         <v>192.6510469835163</v>
@@ -6792,7 +6792,7 @@
         <v>1711.239506382455</v>
       </c>
       <c r="O33" t="n">
-        <v>2001.655628026346</v>
+        <v>2260.675515135178</v>
       </c>
       <c r="P33" t="n">
         <v>2425.623396507182</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>566.3803552468216</v>
+        <v>390.0822898488377</v>
       </c>
       <c r="C34" t="n">
-        <v>478.2542626340189</v>
+        <v>349.9257574590782</v>
       </c>
       <c r="D34" t="n">
-        <v>408.9477135367873</v>
+        <v>280.6192083618466</v>
       </c>
       <c r="E34" t="n">
-        <v>341.8447102694984</v>
+        <v>213.5162050945577</v>
       </c>
       <c r="F34" t="n">
-        <v>275.7648530866921</v>
+        <v>147.4363479117515</v>
       </c>
       <c r="G34" t="n">
-        <v>187.9680983971797</v>
+        <v>147.4363479117515</v>
       </c>
       <c r="H34" t="n">
-        <v>114.5235456120489</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I34" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J34" t="n">
         <v>135.6748811815029</v>
       </c>
       <c r="K34" t="n">
-        <v>315.9247802949463</v>
+        <v>315.9247802949462</v>
       </c>
       <c r="L34" t="n">
-        <v>579.9597447135983</v>
+        <v>579.9597447135982</v>
       </c>
       <c r="M34" t="n">
-        <v>864.4313149506697</v>
+        <v>864.4313149506696</v>
       </c>
       <c r="N34" t="n">
-        <v>1149.456649304608</v>
+        <v>1149.456649304607</v>
       </c>
       <c r="O34" t="n">
         <v>1402.75351421104</v>
@@ -6880,28 +6880,28 @@
         <v>1690.023349265683</v>
       </c>
       <c r="R34" t="n">
-        <v>1690.023349265683</v>
+        <v>1640.355478300189</v>
       </c>
       <c r="S34" t="n">
-        <v>1690.023349265683</v>
+        <v>1513.725283867699</v>
       </c>
       <c r="T34" t="n">
-        <v>1545.204242893152</v>
+        <v>1368.906177495168</v>
       </c>
       <c r="U34" t="n">
-        <v>1336.862156785936</v>
+        <v>1160.564091387952</v>
       </c>
       <c r="V34" t="n">
-        <v>1162.987758895153</v>
+        <v>986.6896934971689</v>
       </c>
       <c r="W34" t="n">
-        <v>954.3806791732964</v>
+        <v>778.0826137753124</v>
       </c>
       <c r="X34" t="n">
-        <v>807.2012185903832</v>
+        <v>630.9031531923993</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.2187297619572</v>
+        <v>490.9206643639733</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1887.327403446858</v>
+        <v>1832.328643028361</v>
       </c>
       <c r="C35" t="n">
-        <v>1599.17497682155</v>
+        <v>1551.703979700557</v>
       </c>
       <c r="D35" t="n">
-        <v>1321.719368529904</v>
+        <v>1281.776134706414</v>
       </c>
       <c r="E35" t="n">
-        <v>1016.741206246764</v>
+        <v>984.3257357207776</v>
       </c>
       <c r="F35" t="n">
-        <v>686.5653917722607</v>
+        <v>661.677684543778</v>
       </c>
       <c r="G35" t="n">
-        <v>350.2877003237923</v>
+        <v>332.9277563928135</v>
       </c>
       <c r="H35" t="n">
-        <v>112.8746754114057</v>
+        <v>103.0424947779315</v>
       </c>
       <c r="I35" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J35" t="n">
-        <v>262.631694140357</v>
+        <v>147.4108273418312</v>
       </c>
       <c r="K35" t="n">
-        <v>666.0988071604024</v>
+        <v>550.8779403618767</v>
       </c>
       <c r="L35" t="n">
-        <v>1218.912065406602</v>
+        <v>1103.691198608076</v>
       </c>
       <c r="M35" t="n">
-        <v>1850.629876389914</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N35" t="n">
-        <v>2477.93754444976</v>
+        <v>2362.716677651234</v>
       </c>
       <c r="O35" t="n">
-        <v>3025.098749216838</v>
+        <v>2909.877882418311</v>
       </c>
       <c r="P35" t="n">
-        <v>3454.413795556132</v>
+        <v>3339.192928757606</v>
       </c>
       <c r="Q35" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="R35" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="S35" t="n">
-        <v>3624.184809142965</v>
+        <v>3516.491705641943</v>
       </c>
       <c r="T35" t="n">
-        <v>3490.19503772578</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U35" t="n">
-        <v>3317.313424786035</v>
+        <v>3224.67584788002</v>
       </c>
       <c r="V35" t="n">
-        <v>3067.060627757569</v>
+        <v>2981.950814149057</v>
       </c>
       <c r="W35" t="n">
-        <v>2795.102062802559</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X35" t="n">
-        <v>2502.446394856584</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y35" t="n">
-        <v>2193.117153195876</v>
+        <v>2130.590629479875</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4134795532265</v>
+        <v>985.1090622172559</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9604502720995</v>
+        <v>810.6560329361289</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0260406108482</v>
+        <v>661.7216232748776</v>
       </c>
       <c r="E36" t="n">
-        <v>504.7885856053927</v>
+        <v>502.4841682694222</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2540276322777</v>
+        <v>355.9496102963071</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8126299914996</v>
+        <v>218.5082126555291</v>
       </c>
       <c r="H36" t="n">
-        <v>119.8966521363042</v>
+        <v>117.5922348003336</v>
       </c>
       <c r="I36" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J36" t="n">
-        <v>73.99179512662066</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K36" t="n">
-        <v>403.4201994324305</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L36" t="n">
-        <v>807.4931055247259</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M36" t="n">
-        <v>986.9904418793308</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N36" t="n">
-        <v>1660.196134132113</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O36" t="n">
-        <v>2209.632142884836</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P36" t="n">
-        <v>2633.599911365673</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q36" t="n">
-        <v>2656.33685256765</v>
+        <v>2654.03243523168</v>
       </c>
       <c r="R36" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.920535633867</v>
       </c>
       <c r="S36" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.453746496501</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.76886799256</v>
+        <v>2286.464450656589</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.630080503725</v>
+        <v>2058.325663167755</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.477972271983</v>
+        <v>1823.173554936012</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.240615543781</v>
+        <v>1568.936198207811</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.389115338248</v>
+        <v>1361.084698002278</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.628816573294</v>
+        <v>1153.324399237324</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>525.8486047613933</v>
+        <v>514.5514286534678</v>
       </c>
       <c r="C37" t="n">
-        <v>437.7225121485906</v>
+        <v>433.9530993381688</v>
       </c>
       <c r="D37" t="n">
-        <v>368.415963051359</v>
+        <v>372.1743135384409</v>
       </c>
       <c r="E37" t="n">
-        <v>301.3129597840701</v>
+        <v>312.5990735686556</v>
       </c>
       <c r="F37" t="n">
-        <v>235.2331026012639</v>
+        <v>254.0469796833519</v>
       </c>
       <c r="G37" t="n">
-        <v>147.4363479117514</v>
+        <v>173.7779882913431</v>
       </c>
       <c r="H37" t="n">
-        <v>73.99179512662066</v>
+        <v>107.861198803716</v>
       </c>
       <c r="I37" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J37" t="n">
-        <v>135.6748811815029</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K37" t="n">
-        <v>315.9247802949463</v>
+        <v>328.3762845747426</v>
       </c>
       <c r="L37" t="n">
-        <v>579.9597447135983</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M37" t="n">
-        <v>864.4313149506697</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N37" t="n">
-        <v>1149.456649304608</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O37" t="n">
-        <v>1402.75351421104</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P37" t="n">
-        <v>1607.403060327489</v>
+        <v>1656.744368646702</v>
       </c>
       <c r="Q37" t="n">
-        <v>1690.023349265683</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R37" t="n">
-        <v>1640.35547830019</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S37" t="n">
-        <v>1640.35547830019</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T37" t="n">
-        <v>1495.536371927659</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U37" t="n">
-        <v>1287.194285820442</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V37" t="n">
-        <v>1113.31988792966</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W37" t="n">
-        <v>913.848928687868</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X37" t="n">
-        <v>766.6694681049548</v>
+        <v>740.3167654020219</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.6869792765289</v>
+        <v>607.8620398710997</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1887.327403446858</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C38" t="n">
-        <v>1599.174976821551</v>
+        <v>1551.703979700557</v>
       </c>
       <c r="D38" t="n">
-        <v>1321.719368529905</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E38" t="n">
-        <v>1016.741206246764</v>
+        <v>984.3257357207783</v>
       </c>
       <c r="F38" t="n">
-        <v>686.5653917722611</v>
+        <v>661.6776845437787</v>
       </c>
       <c r="G38" t="n">
-        <v>350.2877003237927</v>
+        <v>332.927756392814</v>
       </c>
       <c r="H38" t="n">
-        <v>112.8746754114057</v>
+        <v>103.0424947779314</v>
       </c>
       <c r="I38" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J38" t="n">
-        <v>262.631694140357</v>
+        <v>147.4108273418312</v>
       </c>
       <c r="K38" t="n">
-        <v>666.0988071604024</v>
+        <v>550.8779403618767</v>
       </c>
       <c r="L38" t="n">
-        <v>1218.912065406602</v>
+        <v>1103.691198608076</v>
       </c>
       <c r="M38" t="n">
-        <v>1850.629876389914</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N38" t="n">
-        <v>2477.93754444976</v>
+        <v>2362.716677651234</v>
       </c>
       <c r="O38" t="n">
-        <v>3025.098749216837</v>
+        <v>2909.877882418311</v>
       </c>
       <c r="P38" t="n">
-        <v>3454.413795556132</v>
+        <v>3339.192928757606</v>
       </c>
       <c r="Q38" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="R38" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="S38" t="n">
-        <v>3624.184809142965</v>
+        <v>3516.491705641943</v>
       </c>
       <c r="T38" t="n">
-        <v>3490.19503772578</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U38" t="n">
-        <v>3317.313424786035</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V38" t="n">
-        <v>3067.060627757569</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W38" t="n">
-        <v>2795.102062802559</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X38" t="n">
-        <v>2502.446394856584</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y38" t="n">
-        <v>2193.117153195876</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4134795532265</v>
+        <v>985.1090622172559</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9604502720995</v>
+        <v>810.6560329361289</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0260406108482</v>
+        <v>661.7216232748776</v>
       </c>
       <c r="E39" t="n">
-        <v>504.7885856053927</v>
+        <v>502.4841682694222</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2540276322777</v>
+        <v>355.9496102963071</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8126299914996</v>
+        <v>218.5082126555291</v>
       </c>
       <c r="H39" t="n">
-        <v>119.8966521363042</v>
+        <v>117.5922348003336</v>
       </c>
       <c r="I39" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J39" t="n">
-        <v>73.99179512662066</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K39" t="n">
-        <v>403.4201994324305</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L39" t="n">
-        <v>540.6497974481244</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M39" t="n">
-        <v>1181.195146915229</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N39" t="n">
-        <v>1854.400839168012</v>
+        <v>1839.838898021615</v>
       </c>
       <c r="O39" t="n">
-        <v>2403.836847920735</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P39" t="n">
-        <v>2512.526475448034</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q39" t="n">
-        <v>2656.33685256765</v>
+        <v>2654.03243523168</v>
       </c>
       <c r="R39" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.920535633867</v>
       </c>
       <c r="S39" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.453746496501</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.76886799256</v>
+        <v>2286.464450656589</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.630080503725</v>
+        <v>2058.325663167755</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.477972271983</v>
+        <v>1823.173554936012</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.240615543781</v>
+        <v>1568.936198207811</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.389115338248</v>
+        <v>1361.084698002278</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.628816573294</v>
+        <v>1153.324399237324</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>490.9206643639735</v>
+        <v>514.5514286534662</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7945717511708</v>
+        <v>433.9530993381672</v>
       </c>
       <c r="D40" t="n">
-        <v>333.4880226539393</v>
+        <v>372.1743135384394</v>
       </c>
       <c r="E40" t="n">
-        <v>266.3850193866503</v>
+        <v>312.5990735686541</v>
       </c>
       <c r="F40" t="n">
-        <v>200.3051622038441</v>
+        <v>254.0469796833517</v>
       </c>
       <c r="G40" t="n">
-        <v>112.5084075143317</v>
+        <v>173.777988291343</v>
       </c>
       <c r="H40" t="n">
-        <v>112.5084075143317</v>
+        <v>107.861198803716</v>
       </c>
       <c r="I40" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J40" t="n">
-        <v>135.6748811815029</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K40" t="n">
-        <v>315.9247802949463</v>
+        <v>328.3762845747427</v>
       </c>
       <c r="L40" t="n">
-        <v>579.9597447135983</v>
+        <v>599.789209801278</v>
       </c>
       <c r="M40" t="n">
-        <v>864.4313149506697</v>
+        <v>891.6387408462331</v>
       </c>
       <c r="N40" t="n">
-        <v>1149.456649304608</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O40" t="n">
-        <v>1402.75351421104</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P40" t="n">
-        <v>1607.403060327489</v>
+        <v>1656.744368646703</v>
       </c>
       <c r="Q40" t="n">
-        <v>1690.023349265683</v>
+        <v>1746.74261839278</v>
       </c>
       <c r="R40" t="n">
-        <v>1640.35547830019</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S40" t="n">
-        <v>1513.725283867699</v>
+        <v>1585.500079589801</v>
       </c>
       <c r="T40" t="n">
-        <v>1368.906177495168</v>
+        <v>1448.208736514774</v>
       </c>
       <c r="U40" t="n">
-        <v>1160.564091387952</v>
+        <v>1247.394413705061</v>
       </c>
       <c r="V40" t="n">
-        <v>986.6896934971692</v>
+        <v>1081.047779111782</v>
       </c>
       <c r="W40" t="n">
-        <v>778.0826137753127</v>
+        <v>879.9684626874296</v>
       </c>
       <c r="X40" t="n">
-        <v>630.9031531923995</v>
+        <v>740.3167654020201</v>
       </c>
       <c r="Y40" t="n">
-        <v>490.9206643639735</v>
+        <v>607.862039871098</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1887.327403446858</v>
+        <v>1832.328643028361</v>
       </c>
       <c r="C41" t="n">
-        <v>1599.17497682155</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D41" t="n">
-        <v>1321.719368529904</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E41" t="n">
-        <v>1016.741206246764</v>
+        <v>984.3257357207787</v>
       </c>
       <c r="F41" t="n">
-        <v>686.5653917722602</v>
+        <v>661.6776845437789</v>
       </c>
       <c r="G41" t="n">
-        <v>350.2877003237918</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H41" t="n">
-        <v>112.8746754114057</v>
+        <v>103.0424947779315</v>
       </c>
       <c r="I41" t="n">
-        <v>73.99179512662064</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J41" t="n">
-        <v>262.631694140357</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K41" t="n">
-        <v>666.0988071604022</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L41" t="n">
-        <v>1218.912065406601</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M41" t="n">
-        <v>1850.629876389913</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N41" t="n">
-        <v>2477.93754444976</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O41" t="n">
-        <v>3025.098749216837</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P41" t="n">
-        <v>3454.413795556131</v>
+        <v>3452.109378220161</v>
       </c>
       <c r="Q41" t="n">
-        <v>3699.589756331032</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="R41" t="n">
-        <v>3699.589756331032</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.184809142965</v>
+        <v>3516.491705641943</v>
       </c>
       <c r="T41" t="n">
-        <v>3490.19503772578</v>
+        <v>3390.029697522261</v>
       </c>
       <c r="U41" t="n">
-        <v>3317.313424786035</v>
+        <v>3224.67584788002</v>
       </c>
       <c r="V41" t="n">
-        <v>3067.060627757569</v>
+        <v>2981.950814149057</v>
       </c>
       <c r="W41" t="n">
-        <v>2795.102062802559</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X41" t="n">
-        <v>2502.446394856584</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y41" t="n">
-        <v>2193.117153195876</v>
+        <v>2130.590629479875</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4134795532265</v>
+        <v>985.1090622172559</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9604502720995</v>
+        <v>810.6560329361289</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0260406108482</v>
+        <v>661.7216232748776</v>
       </c>
       <c r="E42" t="n">
-        <v>504.7885856053927</v>
+        <v>502.4841682694222</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2540276322776</v>
+        <v>355.9496102963071</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8126299914996</v>
+        <v>218.5082126555291</v>
       </c>
       <c r="H42" t="n">
-        <v>119.8966521363042</v>
+        <v>117.5922348003336</v>
       </c>
       <c r="I42" t="n">
-        <v>73.99179512662064</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J42" t="n">
-        <v>73.99179512662064</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="K42" t="n">
-        <v>403.4201994324305</v>
+        <v>139.2951974540072</v>
       </c>
       <c r="L42" t="n">
-        <v>540.6497974481244</v>
+        <v>643.6567373201258</v>
       </c>
       <c r="M42" t="n">
-        <v>1181.195146915229</v>
+        <v>1284.20208678723</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.497760227161</v>
+        <v>1957.407779040013</v>
       </c>
       <c r="O42" t="n">
-        <v>2316.933768979884</v>
+        <v>2207.327725548866</v>
       </c>
       <c r="P42" t="n">
-        <v>2425.623396507182</v>
+        <v>2631.295494029703</v>
       </c>
       <c r="Q42" t="n">
-        <v>2656.33685256765</v>
+        <v>2654.03243523168</v>
       </c>
       <c r="R42" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.920535633867</v>
       </c>
       <c r="S42" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.453746496501</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.76886799256</v>
+        <v>2286.464450656589</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.630080503725</v>
+        <v>2058.325663167755</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.477972271983</v>
+        <v>1823.173554936012</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.240615543781</v>
+        <v>1568.936198207811</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.389115338248</v>
+        <v>1361.084698002278</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.628816573294</v>
+        <v>1153.324399237324</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>516.7124842813284</v>
+        <v>514.5514286534678</v>
       </c>
       <c r="C43" t="n">
-        <v>437.7225121485905</v>
+        <v>433.9530993381687</v>
       </c>
       <c r="D43" t="n">
-        <v>368.415963051359</v>
+        <v>372.1743135384408</v>
       </c>
       <c r="E43" t="n">
-        <v>301.31295978407</v>
+        <v>312.5990735686555</v>
       </c>
       <c r="F43" t="n">
-        <v>235.2331026012639</v>
+        <v>254.046979683353</v>
       </c>
       <c r="G43" t="n">
-        <v>147.4363479117514</v>
+        <v>173.7779882913441</v>
       </c>
       <c r="H43" t="n">
-        <v>73.99179512662064</v>
+        <v>107.861198803716</v>
       </c>
       <c r="I43" t="n">
-        <v>73.99179512662064</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J43" t="n">
-        <v>135.6748811815029</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K43" t="n">
-        <v>315.9247802949463</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L43" t="n">
-        <v>579.9597447135983</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M43" t="n">
-        <v>864.4313149506697</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N43" t="n">
-        <v>1149.456649304608</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O43" t="n">
-        <v>1402.75351421104</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P43" t="n">
-        <v>1607.403060327489</v>
+        <v>1656.744368646702</v>
       </c>
       <c r="Q43" t="n">
-        <v>1690.023349265683</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R43" t="n">
-        <v>1640.35547830019</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S43" t="n">
-        <v>1640.35547830019</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T43" t="n">
-        <v>1495.536371927659</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U43" t="n">
-        <v>1287.194285820442</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V43" t="n">
-        <v>1113.31988792966</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W43" t="n">
-        <v>904.7128082078032</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X43" t="n">
-        <v>757.53334762489</v>
+        <v>740.3167654020219</v>
       </c>
       <c r="Y43" t="n">
-        <v>617.550858796464</v>
+        <v>607.8620398710997</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1887.327403446858</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C44" t="n">
-        <v>1599.17497682155</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D44" t="n">
-        <v>1321.719368529904</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E44" t="n">
-        <v>1016.741206246764</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F44" t="n">
-        <v>686.5653917722605</v>
+        <v>661.6776845437794</v>
       </c>
       <c r="G44" t="n">
-        <v>350.2877003237921</v>
+        <v>332.9277563928149</v>
       </c>
       <c r="H44" t="n">
-        <v>112.8746754114057</v>
+        <v>103.0424947779315</v>
       </c>
       <c r="I44" t="n">
-        <v>73.99179512662064</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J44" t="n">
-        <v>262.631694140357</v>
+        <v>147.4108273418312</v>
       </c>
       <c r="K44" t="n">
-        <v>666.0988071604024</v>
+        <v>550.8779403618767</v>
       </c>
       <c r="L44" t="n">
-        <v>1218.912065406602</v>
+        <v>1103.691198608076</v>
       </c>
       <c r="M44" t="n">
-        <v>1850.629876389914</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N44" t="n">
-        <v>2477.93754444976</v>
+        <v>2362.716677651234</v>
       </c>
       <c r="O44" t="n">
-        <v>3025.098749216837</v>
+        <v>2909.877882418311</v>
       </c>
       <c r="P44" t="n">
-        <v>3454.413795556131</v>
+        <v>3339.192928757606</v>
       </c>
       <c r="Q44" t="n">
-        <v>3699.589756331032</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="R44" t="n">
-        <v>3699.589756331032</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.184809142965</v>
+        <v>3516.491705641943</v>
       </c>
       <c r="T44" t="n">
-        <v>3490.19503772578</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U44" t="n">
-        <v>3317.313424786035</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V44" t="n">
-        <v>3067.060627757568</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W44" t="n">
-        <v>2795.102062802559</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X44" t="n">
-        <v>2502.446394856583</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y44" t="n">
-        <v>2193.117153195875</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4134795532265</v>
+        <v>985.1090622172559</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9604502720995</v>
+        <v>810.6560329361289</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0260406108482</v>
+        <v>661.7216232748776</v>
       </c>
       <c r="E45" t="n">
-        <v>504.7885856053927</v>
+        <v>502.4841682694222</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2540276322776</v>
+        <v>355.9496102963071</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8126299914996</v>
+        <v>218.5082126555291</v>
       </c>
       <c r="H45" t="n">
-        <v>119.8966521363042</v>
+        <v>117.5922348003336</v>
       </c>
       <c r="I45" t="n">
-        <v>73.99179512662064</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J45" t="n">
-        <v>169.1512800658873</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="K45" t="n">
-        <v>498.5796843716972</v>
+        <v>314.2127031556089</v>
       </c>
       <c r="L45" t="n">
-        <v>1002.941224237816</v>
+        <v>451.4423011713029</v>
       </c>
       <c r="M45" t="n">
-        <v>1643.48657370492</v>
+        <v>1091.987650638408</v>
       </c>
       <c r="N45" t="n">
-        <v>1842.143315357585</v>
+        <v>1765.19334289119</v>
       </c>
       <c r="O45" t="n">
-        <v>2001.655628026346</v>
+        <v>2314.629351643913</v>
       </c>
       <c r="P45" t="n">
-        <v>2425.623396507182</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q45" t="n">
-        <v>2656.33685256765</v>
+        <v>2654.03243523168</v>
       </c>
       <c r="R45" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.920535633867</v>
       </c>
       <c r="S45" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.453746496501</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.76886799256</v>
+        <v>2286.464450656589</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.630080503725</v>
+        <v>2058.325663167755</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.477972271983</v>
+        <v>1823.173554936012</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.240615543781</v>
+        <v>1568.936198207811</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.389115338248</v>
+        <v>1361.084698002278</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.628816573294</v>
+        <v>1153.324399237324</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>566.3803552468216</v>
+        <v>514.551428653467</v>
       </c>
       <c r="C46" t="n">
-        <v>478.2542626340189</v>
+        <v>433.9530993381679</v>
       </c>
       <c r="D46" t="n">
-        <v>408.9477135367874</v>
+        <v>372.17431353844</v>
       </c>
       <c r="E46" t="n">
-        <v>341.8447102694984</v>
+        <v>312.5990735686547</v>
       </c>
       <c r="F46" t="n">
-        <v>275.7648530866923</v>
+        <v>254.0469796833522</v>
       </c>
       <c r="G46" t="n">
-        <v>187.9680983971798</v>
+        <v>173.7779882913434</v>
       </c>
       <c r="H46" t="n">
-        <v>114.5235456120491</v>
+        <v>107.8611988037162</v>
       </c>
       <c r="I46" t="n">
-        <v>73.99179512662064</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="J46" t="n">
-        <v>135.6748811815029</v>
+        <v>140.7484246534155</v>
       </c>
       <c r="K46" t="n">
-        <v>315.9247802949463</v>
+        <v>328.3762845747422</v>
       </c>
       <c r="L46" t="n">
-        <v>579.9597447135983</v>
+        <v>599.7892098012774</v>
       </c>
       <c r="M46" t="n">
-        <v>864.4313149506697</v>
+        <v>891.6387408462322</v>
       </c>
       <c r="N46" t="n">
-        <v>1149.456649304608</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O46" t="n">
-        <v>1402.75351421104</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P46" t="n">
-        <v>1607.403060327489</v>
+        <v>1656.744368646702</v>
       </c>
       <c r="Q46" t="n">
-        <v>1690.023349265683</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R46" t="n">
-        <v>1690.023349265683</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S46" t="n">
-        <v>1690.023349265683</v>
+        <v>1585.500079589802</v>
       </c>
       <c r="T46" t="n">
-        <v>1545.204242893152</v>
+        <v>1448.208736514775</v>
       </c>
       <c r="U46" t="n">
-        <v>1336.862156785936</v>
+        <v>1247.394413705062</v>
       </c>
       <c r="V46" t="n">
-        <v>1162.987758895153</v>
+        <v>1081.047779111783</v>
       </c>
       <c r="W46" t="n">
-        <v>954.3806791732964</v>
+        <v>879.9684626874307</v>
       </c>
       <c r="X46" t="n">
-        <v>807.2012185903832</v>
+        <v>740.3167654020211</v>
       </c>
       <c r="Y46" t="n">
-        <v>667.2187297619572</v>
+        <v>607.8620398710989</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>272.4472657249869</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
         <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
         <v>274.4784056065013</v>
@@ -8228,7 +8228,7 @@
         <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>173.6907663866335</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>298.2026625818938</v>
+        <v>311.4934104451054</v>
       </c>
       <c r="L8" t="n">
-        <v>317.1681869926653</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>311.7480052499508</v>
+        <v>318.8945665042336</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>311.4999834443648</v>
+        <v>321.5017708218116</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>229.2449983744839</v>
       </c>
       <c r="L9" t="n">
-        <v>219.9561518025523</v>
+        <v>229.9579391799991</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.5375933221432</v>
       </c>
       <c r="N9" t="n">
-        <v>212.7434841060114</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>220.7090559813578</v>
+        <v>230.3067307374936</v>
       </c>
       <c r="P9" t="n">
-        <v>215.3761794370083</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.03959551292837</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>335.456513833687</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8775,16 +8775,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>48.10560617263494</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>281.0883197457483</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292837</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0883929120193</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>271.7036563660315</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617263494</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.03959551292843</v>
+        <v>55.03959551292837</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263494</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>294.7256303393019</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>210.0883929120193</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>98.25797100075954</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>418.9459514760943</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>333.4658964092704</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292837</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>266.7431616036</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>56.82651903505666</v>
       </c>
       <c r="L24" t="n">
-        <v>59.46140729102117</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>167.9634363311152</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>43.30575657750911</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>132.2260696718489</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>56.82651903505649</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292702</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>269.5386950268701</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263502</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292702</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>441.9679254493647</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>122.2963999168076</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711645</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>98.25797100075818</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,25 +11139,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>391.5614865245119</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>91.32084226271951</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292702</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119835</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3538970397735</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>176.6843491935371</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.771116669464391e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.542233338928781e-13</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5.186961971048731e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.186961971048731e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.138135486889894</v>
+        <v>18.80548627297561</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>66.43197323461607</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>43.26456846746387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>49.17119225583821</v>
       </c>
       <c r="S28" t="n">
-        <v>125.3638924881655</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>99.82999076998419</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>9.044759275264276</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>43.26456846746387</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>49.17119225583821</v>
       </c>
       <c r="S31" t="n">
-        <v>125.3638924881655</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>28.67203720507129</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.48986462081287</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86.91878714261738</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.138135486889887</v>
+        <v>43.2645684674639</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>49.17119225583821</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.3638924881655</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>43.26456846746387</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.3638924881655</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>9.04475927526417</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.82999076998418</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.71010725727943</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>5.133122203629981</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>9.04475927526417</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>43.26456846746386</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.3638924881655</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.13813548688973</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>49.17119225583819</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.3638924881655</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>694267.1492303099</v>
+        <v>695354.2525928986</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>705306.4282134541</v>
+        <v>705306.4282134542</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>705306.4282134541</v>
+        <v>706568.3888876535</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>705306.4282134541</v>
+        <v>706568.3888876535</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>705306.4282134541</v>
+        <v>706568.3888876536</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>705306.4282134541</v>
+        <v>706568.3888876535</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.725617676</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="E2" t="n">
-        <v>800515.725617675</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="F2" t="n">
-        <v>800515.7256176748</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176751</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="H2" t="n">
         <v>800515.7256176748</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="J2" t="n">
-        <v>796358.1722642735</v>
+        <v>796358.1722642737</v>
       </c>
       <c r="K2" t="n">
-        <v>796358.1722642735</v>
+        <v>796358.1722642739</v>
       </c>
       <c r="L2" t="n">
         <v>796358.1722642736</v>
       </c>
       <c r="M2" t="n">
-        <v>796358.1722642735</v>
+        <v>800515.7256176749</v>
       </c>
       <c r="N2" t="n">
-        <v>796358.1722642734</v>
+        <v>800515.7256176749</v>
       </c>
       <c r="O2" t="n">
-        <v>796358.1722642734</v>
+        <v>800515.7256176749</v>
       </c>
       <c r="P2" t="n">
-        <v>796358.1722642736</v>
+        <v>800515.7256176757</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11577.05573724472</v>
+        <v>14683.91095030102</v>
       </c>
       <c r="E3" t="n">
-        <v>790012.70478881</v>
+        <v>787026.3911172267</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9432.600243360277</v>
+        <v>11963.96261250564</v>
       </c>
       <c r="M3" t="n">
-        <v>203024.1189916253</v>
+        <v>199315.2468792241</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>64001.59152956249</v>
+        <v>64001.59152956241</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>386095.5528670329</v>
       </c>
       <c r="D4" t="n">
-        <v>380101.9119578045</v>
+        <v>378493.4395683941</v>
       </c>
       <c r="E4" t="n">
         <v>159263.0340515217</v>
@@ -26445,19 +26445,19 @@
         <v>153788.3361621245</v>
       </c>
       <c r="L4" t="n">
-        <v>153788.3361621245</v>
+        <v>153788.3361621244</v>
       </c>
       <c r="M4" t="n">
-        <v>153788.3361621245</v>
+        <v>159263.0340515218</v>
       </c>
       <c r="N4" t="n">
-        <v>153788.3361621245</v>
+        <v>159263.0340515218</v>
       </c>
       <c r="O4" t="n">
-        <v>153788.3361621245</v>
+        <v>159263.0340515217</v>
       </c>
       <c r="P4" t="n">
-        <v>153788.3361621244</v>
+        <v>159263.0340515218</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>38576.82773897883</v>
+        <v>39184.93641152759</v>
       </c>
       <c r="E5" t="n">
         <v>74772.39637346867</v>
@@ -26482,10 +26482,10 @@
         <v>74772.39637346867</v>
       </c>
       <c r="G5" t="n">
-        <v>74772.39637346867</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="H5" t="n">
-        <v>74772.39637346867</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="I5" t="n">
         <v>74772.39637346867</v>
@@ -26497,19 +26497,19 @@
         <v>75897.230531475</v>
       </c>
       <c r="L5" t="n">
-        <v>75897.230531475</v>
+        <v>75897.23053147498</v>
       </c>
       <c r="M5" t="n">
-        <v>75897.230531475</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="N5" t="n">
-        <v>75897.230531475</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="O5" t="n">
-        <v>75897.230531475</v>
+        <v>74772.39637346865</v>
       </c>
       <c r="P5" t="n">
-        <v>75897.230531475</v>
+        <v>74772.39637346865</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>363319.6306657423</v>
       </c>
       <c r="C6" t="n">
-        <v>378109.336669986</v>
+        <v>378109.3366699861</v>
       </c>
       <c r="D6" t="n">
-        <v>370259.9301836481</v>
+        <v>368153.4386874534</v>
       </c>
       <c r="E6" t="n">
-        <v>-223532.4095961254</v>
+        <v>-220546.095924542</v>
       </c>
       <c r="F6" t="n">
+        <v>566480.2951926847</v>
+      </c>
+      <c r="G6" t="n">
+        <v>566480.2951926854</v>
+      </c>
+      <c r="H6" t="n">
         <v>566480.2951926843</v>
       </c>
-      <c r="G6" t="n">
-        <v>566480.2951926847</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>566480.2951926854</v>
+      </c>
+      <c r="J6" t="n">
+        <v>483576.7234197488</v>
+      </c>
+      <c r="K6" t="n">
+        <v>566661.9451774606</v>
+      </c>
+      <c r="L6" t="n">
+        <v>554697.9825649548</v>
+      </c>
+      <c r="M6" t="n">
+        <v>367165.0483134603</v>
+      </c>
+      <c r="N6" t="n">
         <v>566480.2951926844</v>
       </c>
-      <c r="I6" t="n">
-        <v>566480.2951926861</v>
-      </c>
-      <c r="J6" t="n">
-        <v>483587.3838129624</v>
-      </c>
-      <c r="K6" t="n">
-        <v>566672.6055706739</v>
-      </c>
-      <c r="L6" t="n">
-        <v>557240.0053273139</v>
-      </c>
-      <c r="M6" t="n">
-        <v>363648.4865790488</v>
-      </c>
-      <c r="N6" t="n">
-        <v>566672.6055706739</v>
-      </c>
       <c r="O6" t="n">
-        <v>502671.0140411114</v>
+        <v>502478.7036631221</v>
       </c>
       <c r="P6" t="n">
-        <v>566672.6055706742</v>
+        <v>566480.2951926852</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="F2" t="n">
         <v>87.45447507648167</v>
       </c>
       <c r="G2" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H2" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I2" t="n">
         <v>87.45447507648167</v>
@@ -26713,19 +26713,19 @@
         <v>80.0019894119531</v>
       </c>
       <c r="L2" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="M2" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="N2" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="O2" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="P2" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="3">
@@ -26793,7 +26793,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>81.40177202267807</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="E4" t="n">
         <v>896.092222383127</v>
@@ -26817,19 +26817,19 @@
         <v>924.8974390827582</v>
       </c>
       <c r="L4" t="n">
-        <v>924.8974390827582</v>
+        <v>924.8974390827581</v>
       </c>
       <c r="M4" t="n">
-        <v>924.8974390827582</v>
+        <v>896.0922223831267</v>
       </c>
       <c r="N4" t="n">
-        <v>924.8974390827582</v>
+        <v>896.0922223831267</v>
       </c>
       <c r="O4" t="n">
-        <v>924.8974390827581</v>
+        <v>896.0922223831267</v>
       </c>
       <c r="P4" t="n">
-        <v>924.8974390827581</v>
+        <v>896.0922223831267</v>
       </c>
     </row>
   </sheetData>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.00198941195312</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.452485664528709</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.00198941195312</v>
+        <v>80.00198941195301</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>37.2695996434495</v>
+        <v>47.27138702089631</v>
       </c>
       <c r="E4" t="n">
-        <v>814.6904503604489</v>
+        <v>804.6886629830021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>37.2695996434495</v>
+        <v>47.27138702089619</v>
       </c>
       <c r="M4" t="n">
-        <v>814.6904503604489</v>
+        <v>775.8834462833707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.00198941195312</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>37.2695996434495</v>
+        <v>47.27138702089631</v>
       </c>
       <c r="M4" t="n">
-        <v>814.6904503604489</v>
+        <v>804.6886629830021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>212.4606349229872</v>
       </c>
       <c r="V2" t="n">
         <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>342.5388337571798</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>100.9370400141553</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
         <v>93.21134478398204</v>
@@ -27476,7 +27476,7 @@
         <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>62.03280804727645</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,22 +27576,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.37159280401214</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>204.0849077710508</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27673,7 +27673,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>381.494393835888</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,31 +27692,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.8233657292951</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>167.5576696719377</v>
       </c>
     </row>
     <row r="7">
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>161.4367220597573</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27825,16 +27825,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>333.900965492457</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>258.0730300930891</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>129.0741175477278</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,19 +27895,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>58.46555854102479</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>117.6165101861205</v>
       </c>
       <c r="T8" t="n">
-        <v>158.273214508268</v>
+        <v>131.6922901640065</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>203.0068802595978</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>76.24330843272287</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,7 +27947,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>30.83367221381839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>8.754274752518242</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>91.17491598420787</v>
       </c>
       <c r="T9" t="n">
-        <v>118.7629566721435</v>
+        <v>108.7611692946967</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>134.0743044059027</v>
+        <v>114.3694258033526</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28065,10 +28065,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>204.9172573338128</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>203.0738884962446</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="C11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="D11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="E11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="F11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="G11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="H11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="I11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="T11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="U11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="V11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="W11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="X11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="C13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="D13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="E13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="F13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="G13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="H13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="I13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="K13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="L13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="M13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="N13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="O13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="P13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="R13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="S13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="T13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="U13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="V13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="W13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="X13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648167</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="K19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="L19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="M19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="N19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="O19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="P19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="R19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="S19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.45447507648167</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U20" t="n">
-        <v>87.45447507648146</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y20" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="K22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="L22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="M22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="N22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="O22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="P22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="R22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="S22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.45447507648167</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="23">
@@ -29050,7 +29050,7 @@
         <v>87.45447507648167</v>
       </c>
       <c r="G23" t="n">
-        <v>87.45447507648186</v>
+        <v>87.45447507648167</v>
       </c>
       <c r="H23" t="n">
         <v>87.45447507648167</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="C32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="D32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="E32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="F32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="G32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="H32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="I32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="T32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="U32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="V32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="W32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="X32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="C34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="D34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="E34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="F34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="G34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="H34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="I34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="J34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="K34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="L34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="M34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="N34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="O34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="P34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="R34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="S34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="T34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="U34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="V34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="W34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="X34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="C35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="D35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="E35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="F35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="G35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="H35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="I35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="T35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="U35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="V35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="W35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="X35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="C37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="D37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="E37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="F37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="G37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="H37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="I37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="J37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="K37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="L37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="M37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="N37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="O37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="P37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="R37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="S37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="T37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="U37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="V37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="W37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="X37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.0019894119531</v>
+        <v>87.45447507648177</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="C38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764814</v>
       </c>
       <c r="D38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="E38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="F38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="G38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="H38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="I38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="T38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="U38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="V38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="W38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="X38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="C40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="D40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="E40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="F40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="G40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="H40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="I40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="J40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="K40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="L40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="M40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="N40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="O40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="P40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="R40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="S40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="T40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="U40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="V40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="W40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="X40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648183</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="K43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="L43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="M43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="N43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="O43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="P43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="R43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="S43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="K46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="L46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="M46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="N46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="O46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="P46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="R46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="S46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
   </sheetData>
@@ -32230,7 +32230,7 @@
         <v>24.43391804055158</v>
       </c>
       <c r="I17" t="n">
-        <v>91.9798486765156</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J17" t="n">
         <v>202.4946418937401</v>
@@ -32242,7 +32242,7 @@
         <v>376.5024309712531</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N17" t="n">
         <v>425.710248335967</v>
@@ -32315,7 +32315,7 @@
         <v>120.6044214847383</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L18" t="n">
         <v>277.1701353512822</v>
@@ -32342,7 +32342,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U18" t="n">
         <v>0.08398246702897151</v>
@@ -32385,7 +32385,7 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I19" t="n">
         <v>32.18391704784131</v>
@@ -32397,7 +32397,7 @@
         <v>124.3381075790241</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M19" t="n">
         <v>167.7591540676927</v>
@@ -32412,7 +32412,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104781</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R19" t="n">
         <v>48.12020970937817</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>42.34905430330019</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N3" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
         <v>44.13217237922859</v>
@@ -34948,7 +34948,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
+        <v>42.34905430330019</v>
+      </c>
+      <c r="P6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>78.11281153691331</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="L8" t="n">
-        <v>81.40177202267807</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>81.40177202267807</v>
+        <v>88.54833327696092</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>81.40177202267807</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="L9" t="n">
-        <v>81.40177202267807</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>91.40355940012489</v>
       </c>
       <c r="N9" t="n">
-        <v>81.40177202267807</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>78.11281153691333</v>
+        <v>87.71048629304916</v>
       </c>
       <c r="P9" t="n">
-        <v>81.40177202267807</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>76.48833287998221</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K11" t="n">
         <v>407.5425384040863</v>
@@ -35416,7 +35416,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>524.0417793138968</v>
       </c>
       <c r="N11" t="n">
         <v>633.6441091513602</v>
@@ -35495,16 +35495,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>229.416046934862</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
-        <v>200.663375406732</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>390.8758222985754</v>
       </c>
       <c r="Q12" t="n">
         <v>233.0438950105733</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.7586331947127</v>
+        <v>69.75863319471269</v>
       </c>
       <c r="K13" t="n">
         <v>189.5230908296229</v>
@@ -35577,7 +35577,7 @@
         <v>294.797506106015</v>
       </c>
       <c r="N13" t="n">
-        <v>295.3568637998194</v>
+        <v>295.3568637998193</v>
       </c>
       <c r="O13" t="n">
         <v>263.3079047619351</v>
@@ -35586,7 +35586,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.90732297583513</v>
+        <v>90.90732297583511</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998221</v>
       </c>
       <c r="K14" t="n">
-        <v>293.4855187449409</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
         <v>558.3972305517163</v>
@@ -35729,10 +35729,10 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>410.3194119374396</v>
       </c>
       <c r="M15" t="n">
-        <v>229.416046934862</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
         <v>200.663375406732</v>
@@ -35741,7 +35741,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q15" t="n">
         <v>233.0438950105733</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>76.48833287998227</v>
+        <v>76.48833287998221</v>
       </c>
       <c r="K17" t="n">
         <v>407.5425384040863</v>
@@ -35896,7 +35896,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233106</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
         <v>433.6515619588832</v>
@@ -35969,16 +35969,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122269</v>
+        <v>229.416046934862</v>
       </c>
       <c r="N18" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>404.513132892129</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
         <v>233.0438950105733</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>69.75863319471269</v>
+        <v>69.75863319471271</v>
       </c>
       <c r="K19" t="n">
         <v>189.5230908296229</v>
       </c>
       <c r="L19" t="n">
-        <v>274.1544699257931</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M19" t="n">
-        <v>294.7975061060149</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N19" t="n">
-        <v>295.3568637998193</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O19" t="n">
         <v>263.3079047619351</v>
@@ -36060,7 +36060,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.9073229758351</v>
+        <v>90.90732297583514</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>293.4855187449409</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
         <v>558.3972305517163</v>
@@ -36139,7 +36139,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312129</v>
+        <v>133.5954659720677</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36209,10 +36209,10 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N21" t="n">
-        <v>619.6093268828263</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269929</v>
+        <v>494.5894445595337</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927643</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>69.75863319471269</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K22" t="n">
-        <v>189.5230908296229</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L22" t="n">
-        <v>274.1544699257932</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M22" t="n">
         <v>294.797506106015</v>
       </c>
       <c r="N22" t="n">
-        <v>295.3568637998193</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O22" t="n">
         <v>263.3079047619351</v>
@@ -36297,7 +36297,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.90732297583511</v>
+        <v>90.90732297583516</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998221</v>
       </c>
       <c r="K23" t="n">
         <v>407.5425384040863</v>
@@ -36370,7 +36370,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O23" t="n">
-        <v>438.6310659641652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P23" t="n">
         <v>433.6515619588832</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
-        <v>332.7559639452625</v>
+        <v>125.1172459677405</v>
       </c>
       <c r="L24" t="n">
-        <v>198.0771628624292</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M24" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N24" t="n">
         <v>680.0057497502855</v>
@@ -36452,7 +36452,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q24" t="n">
         <v>233.0438950105733</v>
@@ -36680,10 +36680,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>349.2738770933423</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
@@ -36911,16 +36911,16 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
-        <v>111.596483510193</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N30" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
@@ -36929,7 +36929,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O33" t="n">
-        <v>293.3496178221122</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>428.2502711927643</v>
+        <v>166.6140215878836</v>
       </c>
       <c r="Q33" t="n">
         <v>233.0438950105733</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.30614753018412</v>
+        <v>62.30614753018409</v>
       </c>
       <c r="K34" t="n">
         <v>182.0706051650943</v>
@@ -37233,7 +37233,7 @@
         <v>266.7019842612646</v>
       </c>
       <c r="M34" t="n">
-        <v>287.3450204414864</v>
+        <v>287.3450204414863</v>
       </c>
       <c r="N34" t="n">
         <v>287.9043781352908</v>
@@ -37245,7 +37245,7 @@
         <v>206.7167132489386</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.45483731130655</v>
+        <v>83.45483731130652</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998086</v>
       </c>
       <c r="K35" t="n">
         <v>407.5425384040863</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K36" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>408.1544505982782</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N36" t="n">
-        <v>680.0057497502855</v>
+        <v>248.768981579367</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269929</v>
@@ -37403,7 +37403,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>62.30614753018412</v>
+        <v>69.75863319471279</v>
       </c>
       <c r="K37" t="n">
-        <v>182.0706051650943</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L37" t="n">
-        <v>266.7019842612646</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M37" t="n">
-        <v>287.3450204414864</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N37" t="n">
-        <v>287.9043781352908</v>
+        <v>295.3568637998195</v>
       </c>
       <c r="O37" t="n">
-        <v>255.8554190974065</v>
+        <v>263.3079047619352</v>
       </c>
       <c r="P37" t="n">
-        <v>206.7167132489386</v>
+        <v>214.1691989134673</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.45483731130655</v>
+        <v>90.90732297583521</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998086</v>
       </c>
       <c r="K38" t="n">
         <v>407.5425384040863</v>
@@ -37552,7 +37552,7 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
-        <v>633.6441091513601</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
         <v>552.6880856233105</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K39" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N39" t="n">
-        <v>680.0057497502855</v>
+        <v>642.6313008560967</v>
       </c>
       <c r="O39" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
-        <v>145.2630071915318</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>62.30614753018413</v>
+        <v>69.75863319471284</v>
       </c>
       <c r="K40" t="n">
-        <v>182.0706051650943</v>
+        <v>189.5230908296231</v>
       </c>
       <c r="L40" t="n">
-        <v>266.7019842612646</v>
+        <v>274.1544699257934</v>
       </c>
       <c r="M40" t="n">
-        <v>287.3450204414864</v>
+        <v>294.7975061060151</v>
       </c>
       <c r="N40" t="n">
-        <v>287.9043781352908</v>
+        <v>295.3568637998195</v>
       </c>
       <c r="O40" t="n">
-        <v>255.8554190974065</v>
+        <v>263.3079047619352</v>
       </c>
       <c r="P40" t="n">
-        <v>206.7167132489386</v>
+        <v>214.1691989134673</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.45483731130656</v>
+        <v>90.90732297583527</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K41" t="n">
-        <v>407.542538404086</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L41" t="n">
         <v>558.3972305517163</v>
@@ -37798,7 +37798,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.6524856312129</v>
+        <v>133.5954659720664</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L42" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N42" t="n">
-        <v>592.2248619312439</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O42" t="n">
-        <v>554.9858674269929</v>
+        <v>252.4443904129828</v>
       </c>
       <c r="P42" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>62.30614753018413</v>
+        <v>69.75863319471274</v>
       </c>
       <c r="K43" t="n">
-        <v>182.0706051650943</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L43" t="n">
-        <v>266.7019842612646</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M43" t="n">
-        <v>287.3450204414864</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N43" t="n">
-        <v>287.9043781352908</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O43" t="n">
-        <v>255.8554190974065</v>
+        <v>263.3079047619352</v>
       </c>
       <c r="P43" t="n">
-        <v>206.7167132489386</v>
+        <v>214.1691989134673</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.45483731130656</v>
+        <v>90.90732297583517</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998086</v>
       </c>
       <c r="K44" t="n">
         <v>407.5425384040863</v>
@@ -38026,7 +38026,7 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N44" t="n">
-        <v>633.6441091513597</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
         <v>552.6880856233105</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>96.12069185784512</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>332.7559639452625</v>
+        <v>244.975076126221</v>
       </c>
       <c r="L45" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M45" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>200.663375406732</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O45" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q45" t="n">
         <v>233.0438950105733</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>62.30614753018413</v>
+        <v>69.75863319471274</v>
       </c>
       <c r="K46" t="n">
-        <v>182.0706051650943</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L46" t="n">
-        <v>266.7019842612646</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M46" t="n">
-        <v>287.3450204414864</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N46" t="n">
-        <v>287.9043781352908</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O46" t="n">
-        <v>255.8554190974065</v>
+        <v>263.3079047619352</v>
       </c>
       <c r="P46" t="n">
-        <v>206.7167132489386</v>
+        <v>214.1691989134673</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.45483731130656</v>
+        <v>90.90732297583517</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
